--- a/biology/Médecine/Veine_iliaque_interne/Veine_iliaque_interne.xlsx
+++ b/biology/Médecine/Veine_iliaque_interne/Veine_iliaque_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les veines iliaques internes (ou veines hypogastriques) sont des veines drainant essentiellement le pelvis. Elles s'unissent avec les veines iliaques externes pour former les veines iliaques communes.
 Elles longent les artères iliaques internes.
@@ -489,7 +501,7 @@
 veines glutéales supérieures et inférieures, veine pudendale interne, veines obturatrices
 veines sacrales latérales
 veine rectale moyenne et veine vésicale
-veine utérine et veine vaginale pour la femme[1]</t>
+veine utérine et veine vaginale pour la femme</t>
         </is>
       </c>
     </row>
